--- a/vba文件/细品ribbon X/常用XML格式文本/测试文件.xlsx
+++ b/vba文件/细品ribbon X/常用XML格式文本/测试文件.xlsx
@@ -346,6 +346,7 @@
   <ribbon startFromScratch="false">
     <tabs>
       <tab id="myTab" label="mytab">
+        <!--  ¦Ì¨²¨°?¡Á¨¦¡êo?¨´¡À?¡ã¡ä?£¤?¡ì?¡ã -->
         <group id="Group1" label="first_group">
           <buttonGroup id="bg1">
             <button id="Button0" label="btton_1" imageMso="MailMergeMergeFieldInsert" onAction="myButton_ClickHandler"/>
@@ -359,12 +360,13 @@
             <button id="Button4" label="small button" imageMso="HeaderFooterPreviousSection" size="large" onAction="myButton_ClickHandler"/>
           </box>
         </group>
+        <!--  ¦Ì¨²2¡Á¨¦¡êo?¡ä???¨°?¡ì?¡ã -->
         <group id="Group2" label="second_group">
-          <!--    ¸´Ñ¡×éºÏºÍÏÂÀ­¿òÀàÐÍ-->
+          <!--    ?¡ä??¡Á¨¦o?o¨ª??¨¤-?¨°¨¤¨¤D¨ª-->
           <box id="GP_bx1" boxStyle="vertical" visible="true">
             <!--  boxStyle="vertical"   boxStyle="horizontal" -->
             <comboBox id="rxcboSelectSheet" label="Activate:" onChange="rxcboSelectSheet_Click">
-              <!--  onchange ÊÂ¼þ´úÂë -->
+              <!--  onchange ¨º??t¡ä¨²?? -->
               <item id="rxitemcboSelectSheet1" label="Sheet1"/>
               <item id="rxitemcboSelectSheet2" label="Sheet2"/>
               <item id="rxitemcboSelectSheet3" label="Sheet3"/>
@@ -374,26 +376,28 @@
               <item id="Dept2" label="Sheet2"/>
               <item id="Dept3" label="Sheet3"/>
             </dropDown>
-            <!-- comboxÑ¡ÔñÒ²¿ÉÒÔ´«²Î
+            <!-- combox????¨°2?¨¦¨°?¡ä?2?
                                         'Callback for C1 onChange
                                         Sub FFF(control As IRibbonControl, text As String)
                                         End Sub
-                                        dropdownÖ»ÄÜÑ¡Ôñ
+                                        dropdown???¨¹????
                                         'Callback for Dr1 onAction
                                         Sub GGG(control As IRibbonControl, id As String, index As Integer)
                                         End Sub
                                 -->
           </box>
         </group>
+        <!--  ¦Ì¨²¨¨y¡Á¨¦¡êo2?¦Ì£¤???t?¡ì?¡ã -->
         <group id="Group3" label="third_group">
           <menu id="munResources" imageMso="HyperlinkInsert" size="large" label="Useful Links">
             <menuSeparator id="rxmSepRibbon" title="RibbonX Resources"/>
             <button id="rxbtnMSDN" label="MSDN Ribbon Developer Centre" onAction="rxsharedLinks_click" tag="http://msdn2.microsoft.com/en-us/office/aa905530.aspx"/>
             <button id="rxbtnKenPuls" label="The Ken Puls blog (Excel MVP)" onAction="rxsharedLinks_click" tag="http://www.excelguru.ca/blog/2006/12/01/ribbon-example-table-of-contents"/>
-            <button id="rxbtnRondeBruin" label="Ron deBruin¡¯s Site (Excel MVP)" onAction="rxsharedLinks_click" tag="http://www.rondebruin.nl/ribbon.htm"/>
+            <button id="rxbtnRondeBruin" label="Ron deBruin?¡¥s Site (Excel MVP)" onAction="rxsharedLinks_click" tag="http://www.rondebruin.nl/ribbon.htm"/>
             <button id="rxbtnAccessFreak" label="Access Freak (Access MVP)" onAction="rxsharedLinks_click" tag="http://www.access-freak.com"/>
-            <button id="rxbtnPatrickSchmid" label="Patrick Schmid¡¯s RibbonX Forum" onAction="rxsharedLinks_click" tag="http://pschmid.net/office2007/forums"/>
+            <button id="rxbtnPatrickSchmid" label="Patrick Schmid?¡¥s RibbonX Forum" onAction="rxsharedLinks_click" tag="http://pschmid.net/office2007/forums"/>
             <menuSeparator id="rxmSepAuthors" title="Authors Sites"/>
+            <!--¡Á¨®2?¦Ì£¤D?¨º?-->
             <menu id="submenu" imageMso="FilterAdvancedByForm" label="Useful Links">
               <button id="rxbtnAuthorRobertMartin" label="Robert Martin" onAction="rxsharedLinks_click" tag="http://www.msofficegurus.com"/>
               <button id="rxbtnAuthorKenPuls" label="Ken Puls" onAction="rxsharedLinks_click" tag="http://www.excelguru.ca/"/>
@@ -402,8 +406,39 @@
             </menu>
           </menu>
         </group>
+        <!--  ¦Ì¨²??¡Á¨¦¡êocheckBox editBox   toggleButton?¡ì?¡ã -->
+        <!--
+                                        Option Explicit
+                                        ??¨®|¦Ì??¡ä???¨°??¦Ì¡Âo¡¥¨ºyD¡ä¡¤¡§
+                                        'Callback for c1 onAction
+                                        Sub CC(control As IRibbonControl, pressed As Boolean)
+                                        If pressed = True Then
+                                        MsgBox "??¨º?0?¦Ì"
+                                        Else
+                                        MsgBox "2???¨º?0?¦Ì"
+                                        End If
+                                        End Sub
+                                        'Callback for t1 onAction
+                                        Sub TT(control As IRibbonControl, pressed As Boolean)
+                                        If pressed = True Then
+                                        MsgBox "??¨º?¨ºy¡Á?"
+                                        Else
+                                        MsgBox "2???¨º?¨ºy¡Á?"
+                                        End If
+                                        End Sub
+                                -->
+        <group id="Group4" label="four_group">
+          <!--  ¡êocheckBox ¨º1¨®?¡ä¨°13o¨ª2?¡ä¨°1¡ä¨¢???¡Á¡ä¨¬?  -->
+          <box id="GP4_bx1" boxStyle="vertical" visible="true">
+            <checkBox id="rxchkR1C1" label="R1C1 Formulas" getPressed="rxchkR1C1_getPressed" onAction="rxchkR1C1_click"/>
+            <!--  ¡êoeditbox ¨¬?D¡ä?¨º??D??¡é -->
+            <editBox id="rxtxtRename" label="Rename Sheet to:" imageMso="SignatureLineInsert" keytip="R" sizeString="123456789012345" onChange="rxtxtRename_Click"/>
+            <!--  ¡êo?D??¡ã¡ä?£¤ ¡ã¡ä??o¨ª¦Ì¡¥?e -->
+            <toggleButton id="rxtglHideExpense" label="Hide Expenses" imageMso="FieldList" onAction="rxtglHideExpense_Click"/>
+          </box>
+        </group>
       </tab>
-      <!--   ²Î¿¼µÄÄÚ²¿Í¼±êÃû³Æ
+      <!--   2???¦Ì??¨²2?¨ª?¡À¨º??3?
                                 MailMergeHelper  
                                 MailMergeHighlightMergeFields
                                 MailMergeMatchFields
